--- a/БИС/4/Zanyatie_4_Plan_kredita.xlsx
+++ b/БИС/4/Zanyatie_4_Plan_kredita.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191734\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\XXX\БИС\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A343FF6F-2B7B-4A26-B49A-BEF560F4F46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F0343-6C6A-48AC-92C5-D966A7E93568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЗАДАНИЕ " sheetId="3" r:id="rId1"/>
     <sheet name="ПОГАШЕНИЕ" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -426,6 +437,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -458,12 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Денежный" xfId="4" builtinId="4"/>
@@ -473,15 +484,24 @@
     <cellStyle name="Процентный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Финансовый 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
+      <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₽&quot;"/>
+      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -492,36 +512,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -871,20 +861,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -892,19 +882,19 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -913,10 +903,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -935,24 +925,24 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
@@ -977,7 +967,7 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37">
+      <c r="B13" s="25">
         <f>PMT(C7/C9,C9*C8,-C6,0,0)</f>
         <v>43263.373049069029</v>
       </c>
@@ -1031,50 +1021,50 @@
       <c r="B14" s="14">
         <v>0.05</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="26">
         <f t="dataTable" ref="C14:Q35" dt2D="1" dtr="1" r1="C8" r2="C7"/>
         <v>42803.740894233568</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="26">
         <v>21935.694867034221</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="26">
         <v>14985.448552332738</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="26">
         <v>11514.646785323259</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="26">
         <v>9435.616822005466</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="26">
         <v>8052.466330725465</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="26">
         <v>7066.9545359535041</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="26">
         <v>6329.9600060618977</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="26">
         <v>5758.6365841823463</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="26">
         <v>5303.2757619537615</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="26">
         <v>4932.2441233775926</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="26">
         <v>4624.4520678492609</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="26">
         <v>4365.2985081581828</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="26">
         <v>4144.3535559359925</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="26">
         <v>3953.9681337077227</v>
       </c>
     </row>
@@ -1082,49 +1072,49 @@
       <c r="B15" s="9">
         <v>0.06</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="26">
         <v>43033.214853540325</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="26">
         <v>22160.305126378447</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="26">
         <v>15210.968725777555</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="26">
         <v>11742.514523967808</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="26">
         <v>9666.400764713957</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="26">
         <v>8286.4439467361008</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="26">
         <v>7304.2772418903942</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="26">
         <v>6570.715105069602</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="26">
         <v>6002.8748154627956</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="26">
         <v>5551.0250970824718</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="26">
         <v>5183.5173134262859</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="26">
         <v>4879.2510678813924</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="26">
         <v>4623.6172220161307</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="26">
         <v>4406.179622667818</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="26">
         <v>4219.2841402422564</v>
       </c>
     </row>
@@ -1132,49 +1122,49 @@
       <c r="B16" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="26">
         <v>43263.373049069029</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="26">
         <v>22386.28955157271</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="26">
         <v>15438.548432685971</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="26">
         <v>11973.122331221455</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="26">
         <v>9900.5992701747673</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="26">
         <v>8524.5032359848083</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="26">
         <v>7546.3399910946964</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="26">
         <v>6816.8585402515746</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="26">
         <v>6253.1382971853718</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="26">
         <v>5805.4239609312026</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="26">
         <v>5442.0504679054238</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="26">
         <v>5141.9054750614059</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="26">
         <v>4890.3707030605183</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="26">
         <v>4677.0027089733285</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="26">
         <v>4494.1413542621358</v>
       </c>
     </row>
@@ -1182,49 +1172,49 @@
       <c r="B17" s="9">
         <v>0.08</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="26">
         <v>43494.214542710535</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="26">
         <v>22613.645728092077</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="26">
         <v>15668.182730715425</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="26">
         <v>12206.461170751241</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="26">
         <v>10138.197144206841</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="26">
         <v>8766.6203059763957</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="26">
         <v>7793.1072013347712</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="26">
         <v>7068.3396272724021</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="26">
         <v>6509.357443618107</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="26">
         <v>6066.3797177678462</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="26">
         <v>5707.7234439215081</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="26">
         <v>5412.2629170174077</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="26">
         <v>5165.3694075053636</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="26">
         <v>4956.590985240503</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="26">
         <v>4778.2604216517575</v>
       </c>
     </row>
@@ -1232,49 +1222,49 @@
       <c r="B18" s="9">
         <v>0.09</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="26">
         <v>43725.738384960714</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="26">
         <v>22842.371139586547</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="26">
         <v>15899.866329970342</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="26">
         <v>12442.521186967104</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="26">
         <v>10379.177613177004</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="26">
         <v>9012.768584135918</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="26">
         <v>8044.539130019275</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="26">
         <v>7325.1016368464834</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="26">
         <v>6771.454326568627</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="26">
         <v>6333.7886875124741</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="26">
         <v>5980.4019743577883</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="26">
         <v>5690.1534838020298</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="26">
         <v>5448.402569647249</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="26">
         <v>5244.6875245127994</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="26">
         <v>5071.3329208089244</v>
       </c>
     </row>
@@ -1282,49 +1272,49 @@
       <c r="B19" s="9">
         <v>0.1</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="26">
         <v>43957.943615004799</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="26">
         <v>23072.463168758251</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="26">
         <v>16133.593596918743</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="26">
         <v>12681.291717373595</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="26">
         <v>10623.522355634139</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="26">
         <v>9262.9188878852383</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="26">
         <v>8300.5920134429543</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="26">
         <v>7587.0820489021653</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="26">
         <v>7039.3431086856126</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="26">
         <v>6607.5368440880829</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="26">
         <v>6259.9387416646014</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="26">
         <v>5975.3913141366684</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="26">
         <v>5739.2404655283872</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="26">
         <v>5541.0134368430472</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="26">
         <v>5373.0255885405804</v>
       </c>
     </row>
@@ -1332,49 +1322,49 @@
       <c r="B20" s="9">
         <v>0.11</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="26">
         <v>44190.829260802013</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="26">
         <v>23303.91909826253</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="26">
         <v>16369.358558501021</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="26">
         <v>12922.761305726408</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="26">
         <v>10871.211536321653</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="26">
         <v>9517.0395003529011</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="26">
         <v>8561.2182174493792</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="26">
         <v>7854.2128273043791</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="26">
         <v>7312.9305104191781</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="26">
         <v>6887.5005645961246</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="26">
         <v>6546.1745230089437</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="26">
         <v>6267.7762750872753</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="26">
         <v>6037.636790345965</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="26">
         <v>5845.2711308862899</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="26">
         <v>5682.9846727804443</v>
       </c>
     </row>
@@ -1382,49 +1372,49 @@
       <c r="B21" s="9">
         <v>0.12</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="26">
         <v>44424.394339170845</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="26">
         <v>23536.736111632352</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="26">
         <v>16607.154906425596</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="26">
         <v>13166.917715963882</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="26">
         <v>11122.223842450885</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="26">
         <v>9775.0962513495215</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="26">
         <v>8826.3663985369094</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="26">
         <v>8126.4207128693361</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="26">
         <v>7592.1163058807342</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="26">
         <v>7173.5474201293691</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="26">
         <v>6838.9393902567626</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="26">
         <v>6567.0957071820603</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="26">
         <v>6343.3311046217468</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="26">
         <v>6157.1476336905125</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="26">
         <v>6000.8403104575682</v>
       </c>
     </row>
@@ -1432,49 +1422,49 @@
       <c r="B22" s="9">
         <v>0.13</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="26">
         <v>44658.637855874491</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="26">
         <v>23770.911294225505</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="26">
         <v>16846.976001645886</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="26">
         <v>13413.747946882448</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="26">
         <v>11376.536522112012</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="26">
         <v>10037.052603222286</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="26">
         <v>9095.9816743878364</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="26">
         <v>8403.6275323129321</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="26">
         <v>7876.793842695587</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="26">
         <v>7465.5369988612429</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="26">
         <v>7138.0539481859996</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="26">
         <v>6873.126207314649</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="26">
         <v>6656.0513055173906</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="26">
         <v>6476.3179031816226</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="26">
         <v>6326.2108363948055</v>
       </c>
     </row>
@@ -1482,49 +1472,49 @@
       <c r="B23" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="26">
         <v>44893.558805706765</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="26">
         <v>24006.441634194063</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="26">
         <v>17088.814879012811</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="26">
         <v>13663.238247523457</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="26">
         <v>11634.125424693848</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="26">
         <v>10302.869741186032</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="26">
         <v>9370.0058027645664</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="26">
         <v>8685.7505207118375</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="26">
         <v>8166.8505808687769</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="26">
         <v>7763.3217520457229</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="26">
         <v>7443.3305945972261</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="26">
         <v>7185.6354227543397</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="26">
         <v>6975.5160821706713</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="26">
         <v>6802.44807317916</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="26">
         <v>6658.7069393744332</v>
       </c>
     </row>
@@ -1532,49 +1522,49 @@
       <c r="B24" s="9">
         <v>0.15</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="26">
         <v>45129.15617257847</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="26">
         <v>24243.324023475507</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="26">
         <v>17332.664252097064</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="26">
         <v>13915.374133238123</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="26">
         <v>11894.965043179367</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="26">
         <v>10572.506667715666</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="26">
         <v>9648.3773676907495</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="26">
         <v>8972.7026550229202</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="26">
         <v>8462.1686456842726</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="26">
         <v>8066.7478537157785</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="26">
         <v>7754.5747865724516</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="26">
         <v>7504.3838311310474</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="26">
         <v>7301.4373173544109</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="26">
         <v>7135.1985775369139</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="26">
         <v>6997.9355937228638</v>
       </c>
     </row>
@@ -1582,49 +1572,49 @@
       <c r="B25" s="9">
         <v>0.16</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="26">
         <v>45365.428929603993</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="26">
         <v>24481.555258805023</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="26">
         <v>17578.516518175049</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="26">
         <v>14170.140402395935</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="26">
         <v>12159.028558179567</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="26">
         <v>10845.920300574446</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="26">
         <v>9931.0319718190094</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="26">
         <v>9264.3929962011644</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="26">
         <v>8762.6253897257466</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="26">
         <v>8375.6560651686268</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="26">
         <v>8071.5862979947706</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="26">
         <v>7829.1264832846418</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="26">
         <v>7633.522401920065</v>
       </c>
-      <c r="P25" s="38">
+      <c r="P25" s="26">
         <v>7474.2271077667892</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="26">
         <v>7343.5037081711762</v>
       </c>
     </row>
@@ -1632,49 +1622,49 @@
       <c r="B26" s="9">
         <v>0.17</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="26">
         <v>45602.376039188341</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="26">
         <v>24721.132042748304</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="26">
         <v>17826.363763372337</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="26">
         <v>14427.521153701129</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="26">
         <v>12426.287883565385</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="26">
         <v>11123.065574045686</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="26">
         <v>10217.902433881003</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="26">
         <v>9560.7270374784766</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="26">
         <v>9068.0939592390878</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="26">
         <v>8689.8825957570443</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="26">
         <v>8394.1604545397076</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="26">
         <v>8159.6146882668563</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="26">
         <v>7971.4764331693732</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="26">
         <v>7819.1913668646994</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="26">
         <v>7695.0214476140691</v>
       </c>
     </row>
@@ -1682,49 +1672,49 @@
       <c r="B27" s="9">
         <v>0.18</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="26">
         <v>45839.996453114465</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="26">
         <v>24962.050984754358</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="26">
         <v>18076.197767958416</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="26">
         <v>14687.499804081104</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="26">
         <v>12696.713713554542</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="26">
         <v>11403.895542931239</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="26">
         <v>10508.918990118649</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="26">
         <v>9861.6070564129295</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="26">
         <v>9378.4438602467872</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="26">
         <v>9009.2599520498352</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="26">
         <v>8722.0893336374993</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="26">
         <v>8495.5976224547285</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="26">
         <v>8315.0042732895472</v>
       </c>
-      <c r="P27" s="38">
+      <c r="P27" s="26">
         <v>8169.7515906266017</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="26">
         <v>8052.1051970641083</v>
       </c>
     </row>
@@ -1732,49 +1722,49 @@
       <c r="B28" s="9">
         <v>0.19</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="26">
         <v>46078.289112630955</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="26">
         <v>25204.308602227717</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="26">
         <v>18328.010011786253</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="26">
         <v>14950.059107109848</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="26">
         <v>12970.275571108452</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="26">
         <v>11688.361488878774</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="26">
         <v>10804.009498607942</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="26">
         <v>10166.932468389219</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="26">
         <v>9693.5415200651223</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="26">
         <v>9333.6177680620094</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="26">
         <v>9055.1629183368168</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="26">
         <v>8836.8238475752696</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="26">
         <v>8663.8124490923256</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="26">
         <v>8525.5728161754378</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="26">
         <v>8414.380150034196</v>
       </c>
     </row>
@@ -1782,49 +1772,49 @@
       <c r="B29" s="9">
         <v>0.2</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="26">
         <v>46317.252948540015</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="26">
         <v>25447.901321619447</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="26">
         <v>18581.791679870224</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="26">
         <v>15215.181171928996</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="26">
         <v>13246.941857493046</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="26">
         <v>11976.413028601271</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="26">
         <v>11103.099645407709</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="26">
         <v>10476.600179343566</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="26">
         <v>10013.250840160103</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="26">
         <v>9662.7836099662891</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="26">
         <v>9393.1701955270055</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="26">
         <v>9183.0427253542184</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="26">
         <v>9017.6108793361745</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="26">
         <v>8886.3268854237394</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="26">
         <v>8781.4825153532529</v>
       </c>
     </row>
@@ -1832,49 +1822,49 @@
       <c r="B30" s="9">
         <v>0.21</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="26">
         <v>46556.886881285776</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="26">
         <v>25692.825479536361</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="26">
         <v>18837.533668095883</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="26">
         <v>15482.847482628649</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="26">
         <v>13526.679902856866</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="26">
         <v>12267.998223556264</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="26">
         <v>11406.113151494679</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="26">
         <v>10790.50493559763</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="26">
         <v>10337.433736599083</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="26">
         <v>9996.58374946189</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="26">
         <v>9735.9001905531222</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="26">
         <v>9534.0057193987777</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="26">
         <v>9376.1144207315192</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="26">
         <v>9251.6941785415038</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="26">
         <v>9153.0613467287549</v>
       </c>
     </row>
@@ -1882,49 +1872,49 @@
       <c r="B31" s="9">
         <v>0.22</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="26">
         <v>46797.189821042877</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="26">
         <v>25939.077323867874</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="26">
         <v>19095.226589054746</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="26">
         <v>15753.038918049779</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="26">
         <v>13809.456017679897</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="26">
         <v>12563.063690658917</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="26">
         <v>11712.97197948248</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="26">
         <v>11108.539668813961</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="26">
         <v>10665.950664704336</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="26">
         <v>10334.843900774655</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="26">
         <v>10083.142931842982</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="26">
         <v>9889.4675777271204</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="26">
         <v>9739.0442282070853</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="26">
         <v>9621.3650790171996</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="26">
         <v>9528.7800080362213</v>
       </c>
     </row>
@@ -1932,49 +1922,49 @@
       <c r="B32" s="9">
         <v>0.23</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="26">
         <v>47038.160667805329</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="26">
         <v>26186.653014929863</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="26">
         <v>19354.86077799755</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="26">
         <v>16025.73577196983</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="26">
         <v>14095.235544947229</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="26">
         <v>12861.55471361198</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="26">
         <v>12023.596539165059</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="26">
         <v>11430.595834227015</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="26">
         <v>10998.661124884884</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="26">
         <v>10677.389917075674</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="26">
         <v>10434.690340721019</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="26">
         <v>10249.187392001719</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="26">
         <v>10106.12892905793</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32" s="26">
         <v>9995.0411774857912</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="26">
         <v>9908.3172942707988</v>
       </c>
     </row>
@@ -1982,49 +1972,49 @@
       <c r="B33" s="9">
         <v>0.24</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="26">
         <v>47279.798311475737</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="26">
         <v>26435.548626624943</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="26">
         <v>19616.426298899078</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="26">
         <v>16300.917773633046</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="26">
         <v>14383.982912903168</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="26">
         <v>13163.415354446905</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="26">
         <v>12337.90589097371</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="26">
         <v>11756.563740456342</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="26">
         <v>11335.424147005697</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="26">
         <v>11024.048442916494</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33" s="26">
         <v>10790.337043076934</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="26">
         <v>10612.929531957428</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="26">
         <v>10477.105614138727</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="26">
         <v>10372.436226101852</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33" s="26">
         <v>10291.368233361969</v>
       </c>
     </row>
@@ -2032,49 +2022,49 @@
       <c r="B34" s="9">
         <v>0.25</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="26">
         <v>47522.101631954632</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="26">
         <v>26685.760147618523</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="26">
         <v>19879.91295062776</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="26">
         <v>16578.564108587001</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="26">
         <v>14675.661688243137</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="26">
         <v>13468.588564883439</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="26">
         <v>12655.817946490433</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="26">
         <v>12086.332869369457</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="26">
         <v>11676.098751042358</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="26">
         <v>11374.647520072165</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="26">
         <v>11149.881100960645</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="26">
         <v>10980.464455701036</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="26">
         <v>10851.720652273445</v>
       </c>
-      <c r="P34" s="38">
+      <c r="P34" s="26">
         <v>10753.276858856843</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="26">
         <v>10677.644597724653</v>
       </c>
     </row>
@@ -2082,49 +2072,49 @@
       <c r="B35" s="9">
         <v>0.26</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="26">
         <v>47765.069499230121</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="26">
         <v>26937.283482530089</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="26">
         <v>20145.310273213257</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="26">
         <v>16858.653439787013</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="26">
         <v>14970.234629603312</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="26">
         <v>13777.016297130262</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="26">
         <v>12977.249665218251</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="26">
         <v>12419.79218462837</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="26">
         <v>12020.544382157041</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="26">
         <v>11729.017144945617</v>
       </c>
-      <c r="M35" s="38">
+      <c r="M35" s="26">
         <v>11513.124663467943</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="26">
         <v>11351.5693984719</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="26">
         <v>11229.730336513545</v>
       </c>
-      <c r="P35" s="38">
+      <c r="P35" s="26">
         <v>11137.303095916684</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="Q35" s="26">
         <v>11066.875156646967</v>
       </c>
     </row>
@@ -2137,7 +2127,7 @@
     <mergeCell ref="B11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="C14:Q35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>16000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2150,7 +2140,7 @@
   <dimension ref="A1:R511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,17 +2163,17 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
@@ -2192,49 +2182,49 @@
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="15">
         <v>42628</v>
       </c>
@@ -2260,39 +2250,39 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="39">
+      <c r="I10" s="27">
         <f>PMT(C5/C7,C7*C6,-C4,0,0)</f>
-        <v>98508.734055094144</v>
+        <v>25447.901321619447</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="30">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="30">
         <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="I11" s="39">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="I11" s="27">
         <f>I10*C7*C6</f>
-        <v>591052.4043305649</v>
+        <v>610749.63171886676</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -2305,16 +2295,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="I12" s="39">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="I12" s="27">
         <f>-CUMIPMT(C5/C7,C7*C6,C4,1,C7*C6,0)</f>
-        <v>91052.404330564896</v>
+        <v>110749.63171886676</v>
       </c>
       <c r="L12" t="s">
         <v>26</v>
@@ -2332,43 +2322,43 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="I13" s="40"/>
-      <c r="L13" s="41">
+      <c r="I13" s="28"/>
+      <c r="L13" s="29">
         <f>-PMT(N10/N12,N12*N9,N11+N8,0,0)</f>
         <v>35108.112915896723</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41">
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29">
         <f>-PMT(P10/P12,P12*P9,P11+P8,0,0)</f>
         <v>34420.977442813739</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="29">
         <f>L13*N12*N9</f>
         <v>1263892.0649722819</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="29">
         <f>P13*P12*P9</f>
         <v>1239155.1879412946</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -2402,27 +2392,27 @@
       </c>
       <c r="B17" s="22">
         <f>IF(COUNTBLANK(C3:C8)&lt;&gt;0,"",EDATE(C8,12/C7))</f>
-        <v>42809</v>
+        <v>42689</v>
       </c>
       <c r="C17">
         <f>IF(COUNTBLANK(C3:C8)&lt;&gt;0,"",$C$4-D17)</f>
-        <v>418385.96957387077</v>
-      </c>
-      <c r="D17" s="40">
+        <v>481094.20349790843</v>
+      </c>
+      <c r="D17" s="28">
         <f>IF(COUNTBLANK(C3:C8)&lt;&gt;0,"",-PPMT($C$5/12,$A17,$C$6*$C$7,$C$4))</f>
-        <v>81614.030426129233</v>
-      </c>
-      <c r="E17" s="41">
+        <v>18905.796502091584</v>
+      </c>
+      <c r="E17" s="29">
         <f>IF(COUNTBLANK(C3:C8)&lt;&gt;0,"",-IPMT($C$5/12,$A17,$C$6*$C$7,$C$4))</f>
         <v>4166.6666666666661</v>
       </c>
       <c r="F17">
         <f>IF(COUNTBLANK(C3:C8)&lt;&gt;0,"",IF(A17="","",-CUMPRINC($C$5/$C$7,$C$6*$C$7,$C$4,$A$17,$A17,0)))</f>
-        <v>73508.734055094159</v>
+        <v>17114.567988286111</v>
       </c>
       <c r="G17">
         <f>IF(COUNTBLANK(C3:C8)&lt;&gt;0,"",IF(E17="","",-CUMIPMT($C$5/$C$7,$C$6*$C$7,$C$4,$A$17,$A17,0)))</f>
-        <v>24999.999999999985</v>
+        <v>8333.3333333333358</v>
       </c>
       <c r="J17" s="22"/>
     </row>
@@ -2433,27 +2423,27 @@
       </c>
       <c r="B18" s="22">
         <f>IF(A18="","",EDATE(B17,12/$C$7))</f>
-        <v>42993</v>
+        <v>42750</v>
       </c>
       <c r="C18">
         <f>IF(D18="","",C17-D18)</f>
-        <v>336091.82222752378</v>
+        <v>462030.85869163275</v>
       </c>
       <c r="D18">
         <f>IF(A18="","",-PPMT($C$5/12,$A18,$C$6*$C$7,$C$4))</f>
-        <v>82294.147346346974</v>
+        <v>19063.34480627568</v>
       </c>
       <c r="E18">
         <f>IF(A18="","",-IPMT($C$5/12,$A18,$C$6*$C$7,$C$4))</f>
-        <v>3486.5497464489231</v>
+        <v>4009.1183624825699</v>
       </c>
       <c r="F18">
         <f>IF(A18="","",-CUMPRINC($C$5/$C$7,$C$6*$C$7,$C$4,$A$17,$A18,0))</f>
-        <v>150692.90481294299</v>
+        <v>34514.378776377001</v>
       </c>
       <c r="G18">
         <f>IF(E18="","",-CUMIPMT($C$5/$C$7,$C$6*$C$7,$C$4,$A$17,$A18,0))</f>
-        <v>46324.563297245302</v>
+        <v>16381.423866861893</v>
       </c>
       <c r="J18" s="22"/>
     </row>
@@ -2464,27 +2454,27 @@
       </c>
       <c r="B19" s="22">
         <f>IF(A19="","",EDATE(B18,12/$C$7))</f>
-        <v>43174</v>
+        <v>42809</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C82" si="1">IF(D19="","",C18-D19)</f>
-        <v>253111.89031995725</v>
+        <v>442808.65267863811</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:D82" si="2">IF(A19="","",-PPMT($C$5/12,$A19,$C$6*$C$7,$C$4))</f>
-        <v>82979.931907566526</v>
+        <v>19222.206012994644</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E82" si="3">IF(A19="","",-IPMT($C$5/12,$A19,$C$6*$C$7,$C$4))</f>
-        <v>2800.7651852293648</v>
+        <v>3850.2571557636056</v>
       </c>
       <c r="F19">
         <f t="shared" ref="F19:F82" si="4">IF(A19="","",-CUMPRINC($C$5/$C$7,$C$6*$C$7,$C$4,$A$17,$A19,0))</f>
-        <v>231736.28410868434</v>
+        <v>52204.186410936054</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G82" si="5">IF(E19="","",-CUMIPMT($C$5/$C$7,$C$6*$C$7,$C$4,$A$17,$A19,0))</f>
-        <v>63789.918056598108</v>
+        <v>24139.517553922291</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -2495,27 +2485,27 @@
       </c>
       <c r="B20" s="22">
         <f>IF(A20="","",EDATE(B19,12/$C$7))</f>
-        <v>43358</v>
+        <v>42870</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>169440.45897982764</v>
+        <v>423426.26161553519</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>83671.431340129595</v>
+        <v>19382.391063102932</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>2109.2657526663106</v>
+        <v>3690.072105655317</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>316831.83236921264</v>
+        <v>70188.824172737775</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>77203.103851163934</v>
+        <v>31602.781113740013</v>
       </c>
       <c r="J20" s="22"/>
     </row>
@@ -2526,27 +2516,27 @@
       </c>
       <c r="B21" s="22">
         <f t="shared" ref="B21:B82" si="6">IF(A21="","",EDATE(B20,12/$C$7))</f>
-        <v>43539</v>
+        <v>42931</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>85071.765711863642</v>
+        <v>403882.35062690638</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>84368.693267964001</v>
+        <v>19543.910988628792</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>1412.0038248318974</v>
+        <v>3528.5521801294599</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>406182.15804276749</v>
+        <v>88473.205897236199</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>86361.512232703215</v>
+        <v>38766.300710861033</v>
       </c>
       <c r="J21" s="22"/>
     </row>
@@ -2557,585 +2547,585 @@
       </c>
       <c r="B22" s="22">
         <f t="shared" si="6"/>
-        <v>43723</v>
+        <v>42993</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>-7.2759576141834259E-11</v>
+        <v>384175.57371337235</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>85071.765711863714</v>
+        <v>19706.776913534031</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>708.9313809321975</v>
+        <v>3365.6862552242187</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>500000</v>
+        <v>107062.3273171429</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>91052.404330564896</v>
+        <v>45625.080612573787</v>
       </c>
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+      <c r="A23">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B23" s="22" t="str">
+        <v>7</v>
+      </c>
+      <c r="B23" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C23" t="str">
+        <v>43054</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D23" t="str">
+        <v>364304.57365889219</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E23" t="str">
+        <v>19871.000054480148</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
+        <v>3201.4631142781022</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G23" t="str">
+        <v>125961.26742738139</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="5"/>
-        <v/>
+        <v>52174.041823954729</v>
       </c>
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+      <c r="A24">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B24" s="22" t="str">
+        <v>8</v>
+      </c>
+      <c r="B24" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C24" t="str">
+        <v>43115</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D24" t="str">
+        <v>344267.98193729139</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E24" t="str">
+        <v>20036.591721600817</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F24" t="str">
+        <v>3035.8714471574344</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G24" t="str">
+        <v>145175.18987279054</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="5"/>
-        <v/>
+        <v>58408.020700165041</v>
       </c>
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+      <c r="A25">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B25" s="22" t="str">
+        <v>9</v>
+      </c>
+      <c r="B25" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C25" t="str">
+        <v>43174</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D25" t="str">
+        <v>324064.41861801059</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E25" t="str">
+        <v>20203.563319280824</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F25" t="str">
+        <v>2868.8998494774278</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G25" t="str">
+        <v>164709.3443589565</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="5"/>
-        <v/>
+        <v>64321.767535618535</v>
       </c>
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+      <c r="A26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B26" s="22" t="str">
+        <v>10</v>
+      </c>
+      <c r="B26" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C26" t="str">
+        <v>43235</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D26" t="str">
+        <v>303692.49227106909</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E26" t="str">
+        <v>20371.926346941498</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F26" t="str">
+        <v>2700.5368218167546</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G26" t="str">
+        <v>184569.06808655857</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="5"/>
-        <v/>
+        <v>69909.945129635889</v>
       </c>
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+      <c r="A27">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B27" s="22" t="str">
+        <v>11</v>
+      </c>
+      <c r="B27" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C27" t="str">
+        <v>43296</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D27" t="str">
+        <v>283150.79987123644</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E27" t="str">
+        <v>20541.692399832675</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F27" t="str">
+        <v>2530.7707689255749</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G27" t="str">
+        <v>204759.78720962064</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="5"/>
-        <v/>
+        <v>75167.127328193281</v>
       </c>
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+      <c r="A28">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B28" s="22" t="str">
+        <v>12</v>
+      </c>
+      <c r="B28" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C28" t="str">
+        <v>43358</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D28" t="str">
+        <v>262437.92670140514</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E28" t="str">
+        <v>20712.87316983128</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F28" t="str">
+        <v>2359.5899989269692</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G28" t="str">
+        <v>225287.01831806716</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="5"/>
-        <v/>
+        <v>80087.797541366221</v>
       </c>
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+      <c r="A29">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B29" s="22" t="str">
+        <v>13</v>
+      </c>
+      <c r="B29" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C29" t="str">
+        <v>43419</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D29" t="str">
+        <v>241552.4462551586</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E29" t="str">
+        <v>20885.48044624654</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F29" t="str">
+        <v>2186.9827225117087</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G29" t="str">
+        <v>246156.36994498767</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="5"/>
-        <v/>
+        <v>84666.347236065165</v>
       </c>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+      <c r="A30">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B30" s="22" t="str">
+        <v>14</v>
+      </c>
+      <c r="B30" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C30" t="str">
+        <v>43480</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" t="str">
+        <v>220492.92013852668</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E30" t="str">
+        <v>21059.526116631929</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F30" t="str">
+        <v>2012.9370521263209</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G30" t="str">
+        <v>267373.54409902351</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="5"/>
-        <v/>
+        <v>88897.07440364873</v>
       </c>
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+      <c r="A31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B31" s="22" t="str">
+        <v>15</v>
+      </c>
+      <c r="B31" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C31" t="str">
+        <v>43539</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D31" t="str">
+        <v>199257.89797092282</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E31" t="str">
+        <v>21235.02216760386</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F31" t="str">
+        <v>1837.4410011543885</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G31" t="str">
+        <v>288944.33782229346</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="5"/>
-        <v/>
+        <v>92774.182001998241</v>
       </c>
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+      <c r="A32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B32" s="22" t="str">
+        <v>16</v>
+      </c>
+      <c r="B32" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C32" t="str">
+        <v>43600</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D32" t="str">
+        <v>177845.91728525559</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E32" t="str">
+        <v>21411.980685667229</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F32" t="str">
+        <v>1660.4824830910227</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G32" t="str">
+        <v>310874.64477428445</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="5"/>
-        <v/>
+        <v>96291.776371626707</v>
       </c>
       <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+      <c r="A33">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B33" s="22" t="str">
+        <v>17</v>
+      </c>
+      <c r="B33" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C33" t="str">
+        <v>43661</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D33" t="str">
+        <v>156255.50342720782</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E33" t="str">
+        <v>21590.413858047788</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F33" t="str">
+        <v>1482.0493107104624</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" t="str">
+        <v>333170.45684214187</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="5"/>
-        <v/>
+        <v>99443.865625388746</v>
       </c>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+      <c r="A34">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B34" s="22" t="str">
+        <v>18</v>
+      </c>
+      <c r="B34" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C34" t="str">
+        <v>43723</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D34" t="str">
+        <v>134485.1694536763</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E34" t="str">
+        <v>21770.333973531517</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F34" t="str">
+        <v>1302.1291952267309</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" t="str">
+        <v>355837.86577779712</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>102224.35801135295</v>
       </c>
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+      <c r="A35">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B35" s="22" t="str">
+        <v>19</v>
+      </c>
+      <c r="B35" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C35" t="str">
+        <v>43784</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" t="str">
+        <v>112533.41603036535</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E35" t="str">
+        <v>21951.753423310947</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F35" t="str">
+        <v>1120.7097454473014</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" t="str">
+        <v>378883.06486237992</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="5"/>
-        <v/>
+        <v>104627.06024838955</v>
       </c>
       <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+      <c r="A36">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B36" s="22" t="str">
+        <v>20</v>
+      </c>
+      <c r="B36" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C36" t="str">
+        <v>43845</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D36" t="str">
+        <v>90398.731328526803</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E36" t="str">
+        <v>22134.684701838542</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F36" t="str">
+        <v>937.77846691971035</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G36" t="str">
+        <v>402312.35059837229</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>106645.67583401664</v>
       </c>
       <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+      <c r="A37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B37" s="22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B37" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C37" t="str">
+        <v>43905</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D37" t="str">
+        <v>68079.590920839604</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E37" t="str">
+        <v>22319.140407687191</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F37" t="str">
+        <v>753.32276107105588</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G37" t="str">
+        <v>426132.12442996452</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="5"/>
-        <v/>
+        <v>108273.80332404393</v>
       </c>
       <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+      <c r="A38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B38" s="22" t="str">
+        <v>22</v>
+      </c>
+      <c r="B38" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C38" t="str">
+        <v>43966</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" t="str">
+        <v>45574.457676421684</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E38" t="str">
+        <v>22505.133244417921</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" t="str">
+        <v>567.32992434032928</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" t="str">
+        <v>450348.89449208352</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="5"/>
-        <v/>
+        <v>109504.93458354432</v>
       </c>
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+      <c r="A39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B39" s="22" t="str">
+        <v>23</v>
+      </c>
+      <c r="B39" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C39" t="str">
+        <v>44027</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D39" t="str">
+        <v>22881.781654966944</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E39" t="str">
+        <v>22692.676021454739</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F39" t="str">
+        <v>379.78714730351328</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G39" t="str">
+        <v>474969.27738857095</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="5"/>
-        <v/>
+        <v>110332.4530086763</v>
       </c>
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+      <c r="A40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B40" s="22" t="str">
+        <v>24</v>
+      </c>
+      <c r="B40" s="22">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C40" t="str">
+        <v>44089</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D40" t="str">
+        <v>8.3673512563109398E-11</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E40" t="str">
+        <v>22881.781654966861</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F40" t="str">
+        <v>190.6815137913905</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G40" t="str">
+        <v>500000</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="5"/>
-        <v/>
+        <v>110749.63171886676</v>
       </c>
       <c r="J40" s="22"/>
     </row>
@@ -17206,14 +17196,14 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C10:G10"/>
   </mergeCells>
-  <conditionalFormatting sqref="I10:I13 C17:G500">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="I10:I13 C17:G500 C4">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C$3="₽"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$C$3="$"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C$3="€"</formula>
     </cfRule>
   </conditionalFormatting>
